--- a/biology/Zoologie/Cryptotriton/Cryptotriton.xlsx
+++ b/biology/Zoologie/Cryptotriton/Cryptotriton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptotriton  est un genre d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptotriton  est un genre d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sept espèces de ce genre se rencontrent de l'État d'Oaxaca au Mexique jusqu'au Honduras[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sept espèces de ce genre se rencontrent de l'État d'Oaxaca au Mexique jusqu'au Honduras.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (16 septembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (16 septembre 2015) :
 Cryptotriton alvarezdeltoroi (Papenfuss &amp; Wake, 1987)
 Cryptotriton monzoni (Campbell &amp; Smith, 1998)
 Cryptotriton nasalis (Dunn, 1924)
@@ -579,9 +595,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Cryptotriton vient du grec kryptós, caché ou dissimulé,  et du grec Trítôn, la salamandre, le triton, en référence au fait que ces espèces ont un caractère cryptique[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Cryptotriton vient du grec kryptós, caché ou dissimulé,  et du grec Trítôn, la salamandre, le triton, en référence au fait que ces espèces ont un caractère cryptique.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>García-París &amp; Wake, 2000 : Molecular phylogenetic analysis of relationships of the tropical salamander genera Oedipina and Nototriton, with descriptions of a new genus and three new species. Copeia, vol. 2000, no 1, p. 42-70 (texte intégral).</t>
         </is>
